--- a/Proyectos/SI2019_Proyecto.xlsx
+++ b/Proyectos/SI2019_Proyecto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye\SI2019_Internet1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eddye v0.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -649,7 +649,7 @@
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="topRight" activeCell="C5" sqref="C5"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,14 +764,18 @@
       <c r="D9" s="18">
         <v>8</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="18">
+        <v>8</v>
+      </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="H9" s="21">
+        <v>60</v>
+      </c>
       <c r="I9" s="21"/>
       <c r="J9" s="20">
         <f t="shared" ref="J9:J39" si="0">SUM(C9:I9)</f>
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -784,14 +788,18 @@
       <c r="D10" s="18">
         <v>8</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18">
+        <v>8</v>
+      </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="H10" s="21">
+        <v>60</v>
+      </c>
       <c r="I10" s="21"/>
       <c r="J10" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -876,14 +884,18 @@
       <c r="D16" s="4">
         <v>8</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4">
+        <v>8</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>54</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -896,14 +908,18 @@
       <c r="D17" s="4">
         <v>8</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>8</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>54</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -982,10 +998,14 @@
       <c r="D23" s="6">
         <v>8</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="20">
         <f t="shared" si="0"/>
@@ -1002,14 +1022,18 @@
       <c r="D24" s="6">
         <v>8</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>49</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="20">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
